--- a/xlsx/TeX_intext.xlsx
+++ b/xlsx/TeX_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>TeX</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_TeX</t>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_TeX</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BE%B7%E7%BA%B3</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>軟體許可證列表</t>
+    <t>软体许可证列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E5%BA%93_(%E7%89%88%E6%9C%AC%E6%8E%A7%E5%88%B6)</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BC%8A%C2%B7%E5%8F%B2%E6%8F%90%E7%88%BE%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>蓋伊·史提爾二世</t>
+    <t>盖伊·史提尔二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%A6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F%E9%8C%AF%E8%AA%A4</t>
   </si>
   <si>
-    <t>程序錯誤</t>
+    <t>程序错误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%AF%9D</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E8%98%87%E6%A0%BC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>低地蘇格蘭語</t>
+    <t>低地苏格兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -329,9 +329,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>高德納</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/AMS-TeX</t>
   </si>
   <si>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%96%BC%E6%95%B8%E5%AD%B8%E3%80%81%E7%A7%91%E5%AD%B8%E5%92%8C%E5%B7%A5%E7%A8%8B%E7%9A%84%E5%B8%8C%E8%87%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>用於數學、科學和工程的希臘字母</t>
+    <t>用于数学、科学和工程的希腊字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CTAN</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2395,7 +2392,7 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2421,10 +2418,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2450,10 +2447,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2479,10 +2476,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2508,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2566,10 +2563,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2595,10 +2592,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2624,10 +2621,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2653,10 +2650,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2682,10 +2679,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2711,10 +2708,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2740,10 +2737,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2769,10 +2766,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -2798,10 +2795,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2827,10 +2824,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2856,10 +2853,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2885,10 +2882,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2914,10 +2911,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2943,10 +2940,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2972,10 +2969,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3001,10 +2998,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3030,10 +3027,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3059,10 +3056,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3088,10 +3085,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3117,10 +3114,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3146,10 +3143,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3175,10 +3172,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3204,10 +3201,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3233,10 +3230,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3262,10 +3259,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3291,10 +3288,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3320,10 +3317,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3349,10 +3346,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3378,10 +3375,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3407,10 +3404,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3436,10 +3433,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
